--- a/objects/concs/RootRegionLegend.xlsx
+++ b/objects/concs/RootRegionLegend.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobfry/repos/make-labour-satellite/concs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobfry/repos/make-labour-satellite/objects/concs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C52688A-591F-7949-913C-0359EE6D5BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFB8FA2-CA39-C04A-8EF9-3AE545504E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RootCountryLegend" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3554" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3554" uniqueCount="1012">
   <si>
     <t>Root country number</t>
   </si>
@@ -3064,6 +3064,15 @@
   </si>
   <si>
     <t>United States</t>
+  </si>
+  <si>
+    <t>Türkiye</t>
+  </si>
+  <si>
+    <t>Lao PDR</t>
+  </si>
+  <si>
+    <t>Tanzania, United Republic of</t>
   </si>
 </sst>
 </file>
@@ -3408,9 +3417,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R222"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="J1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q209" sqref="Q209"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9630,7 +9639,7 @@
         <v>9</v>
       </c>
       <c r="Q110" t="s">
-        <v>9</v>
+        <v>1010</v>
       </c>
       <c r="R110" t="s">
         <v>9</v>
@@ -14760,7 +14769,7 @@
         <v>9</v>
       </c>
       <c r="Q200" t="s">
-        <v>9</v>
+        <v>1009</v>
       </c>
       <c r="R200" t="s">
         <v>9</v>
@@ -14931,7 +14940,7 @@
         <v>9</v>
       </c>
       <c r="Q203" t="s">
-        <v>9</v>
+        <v>1011</v>
       </c>
       <c r="R203" t="s">
         <v>9</v>
